--- a/Excel/Test Data.xlsx
+++ b/Excel/Test Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\HotelTask\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE8FA23-2276-49BE-A111-E9F2612FCD4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74569340-8237-455A-A867-04AB18B5969A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6E90C4D6-5007-4A4B-8DCF-CF78AAB9AF31}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t xml:space="preserve">Email </t>
   </si>
@@ -165,25 +165,43 @@
     <t>5555555555552222</t>
   </si>
   <si>
-    <t>#UFSZM33177</t>
-  </si>
-  <si>
-    <t>#UVIOD53469</t>
-  </si>
-  <si>
-    <t>#HEFGF89562</t>
-  </si>
-  <si>
-    <t>EAOXS73055</t>
-  </si>
-  <si>
-    <t>LASWZ17109</t>
-  </si>
-  <si>
-    <t>QKUJZ95750</t>
-  </si>
-  <si>
-    <t>POVVH46095</t>
+    <t>KYOGD37430</t>
+  </si>
+  <si>
+    <t>CheckIn</t>
+  </si>
+  <si>
+    <t>CheckOut</t>
+  </si>
+  <si>
+    <t>2024-10-13</t>
+  </si>
+  <si>
+    <t>2024-10-15</t>
+  </si>
+  <si>
+    <t>TAJES43658</t>
+  </si>
+  <si>
+    <t>FKKHN85518</t>
+  </si>
+  <si>
+    <t>VVRAL77402</t>
+  </si>
+  <si>
+    <t>CKTNF30124</t>
+  </si>
+  <si>
+    <t>WJVYJ95932</t>
+  </si>
+  <si>
+    <t>IUKCJ77454</t>
+  </si>
+  <si>
+    <t>PKUDC29843</t>
+  </si>
+  <si>
+    <t>NRDKN94567</t>
   </si>
 </sst>
 </file>
@@ -270,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -301,6 +319,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -618,10 +639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8809BDB-D6E9-42E5-BDC9-11039632AEE9}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,9 +661,10 @@
     <col min="15" max="15" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
     <col min="16" max="16" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="18" max="19" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,8 +708,14 @@
       <c r="Q1" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="R1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -739,8 +767,14 @@
       <c r="Q2" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="R2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -775,7 +809,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>9043592058</v>
       </c>
@@ -810,7 +844,7 @@
         <v>508</v>
       </c>
       <c r="L4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Test Data.xlsx
+++ b/Excel/Test Data.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
   <si>
     <t xml:space="preserve">Email </t>
   </si>
@@ -202,6 +202,21 @@
   </si>
   <si>
     <t>NRDKN94567</t>
+  </si>
+  <si>
+    <t>NSVCQ07025</t>
+  </si>
+  <si>
+    <t>YWLII20590</t>
+  </si>
+  <si>
+    <t>QZTCJ60275</t>
+  </si>
+  <si>
+    <t>YIATW15955</t>
+  </si>
+  <si>
+    <t>GWOVI19250</t>
   </si>
 </sst>
 </file>
@@ -844,7 +859,7 @@
         <v>508</v>
       </c>
       <c r="L4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Test Data.xlsx
+++ b/Excel/Test Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\HotelTask\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74569340-8237-455A-A867-04AB18B5969A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0CF044-84EF-45D6-A66B-AB9E6B95AD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6E90C4D6-5007-4A4B-8DCF-CF78AAB9AF31}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t xml:space="preserve">Email </t>
   </si>
@@ -63,27 +63,15 @@
     <t>Room Type</t>
   </si>
   <si>
-    <t>1-One</t>
-  </si>
-  <si>
     <t>no.of Rooms</t>
   </si>
   <si>
-    <t>2-Two</t>
-  </si>
-  <si>
     <t>no.of.Adults</t>
   </si>
   <si>
     <t>no.of Childs</t>
   </si>
   <si>
-    <t>Tamil Nadu</t>
-  </si>
-  <si>
-    <t>Chennai</t>
-  </si>
-  <si>
     <t>User Title</t>
   </si>
   <si>
@@ -165,9 +153,6 @@
     <t>5555555555552222</t>
   </si>
   <si>
-    <t>KYOGD37430</t>
-  </si>
-  <si>
     <t>CheckIn</t>
   </si>
   <si>
@@ -177,46 +162,49 @@
     <t>2024-10-13</t>
   </si>
   <si>
-    <t>2024-10-15</t>
-  </si>
-  <si>
-    <t>TAJES43658</t>
-  </si>
-  <si>
-    <t>FKKHN85518</t>
-  </si>
-  <si>
-    <t>VVRAL77402</t>
-  </si>
-  <si>
-    <t>CKTNF30124</t>
-  </si>
-  <si>
-    <t>WJVYJ95932</t>
-  </si>
-  <si>
-    <t>IUKCJ77454</t>
-  </si>
-  <si>
-    <t>PKUDC29843</t>
-  </si>
-  <si>
-    <t>NRDKN94567</t>
-  </si>
-  <si>
-    <t>NSVCQ07025</t>
-  </si>
-  <si>
-    <t>YWLII20590</t>
-  </si>
-  <si>
-    <t>QZTCJ60275</t>
-  </si>
-  <si>
-    <t>YIATW15955</t>
-  </si>
-  <si>
-    <t>GWOVI19250</t>
+    <t>Update CheckIn</t>
+  </si>
+  <si>
+    <t>2024-10-20</t>
+  </si>
+  <si>
+    <t>Kerala</t>
+  </si>
+  <si>
+    <t>Kozhikode</t>
+  </si>
+  <si>
+    <t>3-Three</t>
+  </si>
+  <si>
+    <t>5-Five</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>CHTND77663</t>
+  </si>
+  <si>
+    <t>QDGBN99276</t>
+  </si>
+  <si>
+    <t>OHUHH42737</t>
+  </si>
+  <si>
+    <t>CMOLT18182</t>
+  </si>
+  <si>
+    <t>LGMRY46538</t>
+  </si>
+  <si>
+    <t>QRRHC69522</t>
+  </si>
+  <si>
+    <t>OFGAJ62210</t>
+  </si>
+  <si>
+    <t>FWGVE92470</t>
   </si>
 </sst>
 </file>
@@ -333,10 +321,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -654,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8809BDB-D6E9-42E5-BDC9-11039632AEE9}">
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,7 +667,7 @@
     <col min="18" max="19" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -692,45 +680,48 @@
       <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
       <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="Q1" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -738,10 +729,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>18</v>
+        <v>47</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
@@ -759,98 +750,101 @@
         <v>10</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>14</v>
+        <v>49</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="L2" s="7">
         <v>2</v>
       </c>
       <c r="M2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>20</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="P2" s="7">
         <v>7896543213</v>
       </c>
       <c r="Q2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R2" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="S2" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="T2" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>50</v>
+      <c r="D3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>9043592058</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="E4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>38</v>
-      </c>
       <c r="G4" s="10" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J4" s="9">
         <v>2025</v>
@@ -858,8 +852,9 @@
       <c r="K4" s="7">
         <v>508</v>
       </c>
-      <c r="L4" t="s">
-        <v>63</v>
+      <c r="L4"/>
+      <c r="M4" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
